--- a/web/PirateCardsLayaGame/design/Config/Common/TriggerType.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/TriggerType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3209531-3558-4864-B205-3E4B2CE76A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074FEEB-4D6E-4DB1-9452-B71D0880DDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -579,84 +579,87 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
     </row>

--- a/web/PirateCardsLayaGame/design/Config/Common/TriggerType.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/TriggerType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074FEEB-4D6E-4DB1-9452-B71D0880DDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD012734-53E6-4B9A-839F-F50BB06C74C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy,Boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>吃{0}次盾牌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>EatCardChest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy,Boss,Trap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -626,13 +626,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -640,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -654,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
